--- a/Client/ExcelConfig/Excel/LevelupMFlyBoom.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMFlyBoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,8 +70,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,75 +84,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +151,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -182,20 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +211,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,6 +236,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,7 +380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,21 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,6 +464,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -489,21 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,16 +512,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1">
         <v>450</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D6" s="1">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="E6" s="1">
         <v>450</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>450</v>
       </c>
       <c r="F7" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="E8" s="1">
         <v>450</v>
@@ -1234,16 +1234,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D9" s="1">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="E9" s="1">
         <v>450</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>450</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1282,16 +1282,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D11" s="1">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="E11" s="1">
         <v>450</v>
@@ -1306,16 +1306,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1">
+        <v>550</v>
+      </c>
+      <c r="D12" s="1">
         <v>600</v>
-      </c>
-      <c r="D12" s="1">
-        <v>660</v>
       </c>
       <c r="E12" s="1">
         <v>450</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>450</v>
       </c>
       <c r="F13" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1354,27 +1354,50 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D14" s="1">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="E14" s="1">
         <v>450</v>
       </c>
       <c r="F14" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>700</v>
+      </c>
+      <c r="D15" s="1">
+        <v>720</v>
+      </c>
+      <c r="E15" s="1">
+        <v>450</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
